--- a/data/trans_orig/MED_INDEX-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Clase-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,86</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 0,96</t>
+          <t>0,88; 1,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,04</t>
+          <t>0,82; 1,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,08</t>
+          <t>0,65; 0,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,02</t>
+          <t>0,67; 0,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,24</t>
+          <t>1,03; 1,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 0,8</t>
+          <t>0,76; 0,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 0,97</t>
+          <t>0,8; 0,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,11</t>
+          <t>0,95; 1,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 0,91</t>
+          <t>0,73; 0,87</t>
         </is>
       </c>
     </row>
@@ -742,22 +742,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -767,22 +767,22 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,11</t>
+          <t>0,93; 1,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,13</t>
+          <t>0,83; 1,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,2</t>
+          <t>0,71; 0,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,01</t>
+          <t>0,88; 1,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,21</t>
+          <t>0,96; 1,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,06</t>
+          <t>0,74; 0,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,03</t>
+          <t>0,92; 1,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,13</t>
+          <t>0,92; 1,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,09</t>
+          <t>0,75; 0,91</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,07</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,25</t>
+          <t>1,3; 1,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,35</t>
+          <t>0,17; 1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,49</t>
+          <t>0,81; 1,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,74</t>
+          <t>1,31; 1,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,12</t>
+          <t>1,73; 2,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,61</t>
+          <t>1,17; 1,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,36</t>
+          <t>1,34; 1,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,5</t>
+          <t>0,27; 1,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,49</t>
+          <t>0,95; 1,2</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,11</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,32</t>
+          <t>1,2; 1,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,29</t>
+          <t>1,01; 1,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,44</t>
+          <t>0,99; 1,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,36</t>
+          <t>1,2; 1,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,38</t>
+          <t>1,27; 3,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,39</t>
+          <t>1,0; 1,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,31</t>
+          <t>1,23; 1,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,92</t>
+          <t>1,19; 2,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,37</t>
+          <t>1,03; 1,21</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,1</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,12</t>
+          <t>1,02; 1,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>0,8; 1,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 0,99</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 1,81</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 2,06</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 1,56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 1,62</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 1,71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>0,99; 1,25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 1,34</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 1,71</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 2,12</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 1,8</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 1,35</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 1,76</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 1,59</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,13</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,39</t>
+          <t>0,22; 0,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,56</t>
+          <t>0,27; 0,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,4</t>
+          <t>0,38; 1,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,55</t>
+          <t>1,48; 1,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 1,75</t>
+          <t>1,45; 1,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 1,59</t>
+          <t>0,68; 2,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,77</t>
+          <t>1,16; 1,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,46</t>
+          <t>1,18; 1,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,19</t>
+          <t>0,75; 1,8</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,08</t>
+          <t>1,09; 1,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,08</t>
+          <t>0,6; 1,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,18</t>
+          <t>0,84; 0,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,2</t>
+          <t>1,23; 1,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,85</t>
+          <t>1,45; 2,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,3</t>
+          <t>0,99; 1,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,12</t>
+          <t>1,18; 1,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,5</t>
+          <t>1,09; 1,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,22</t>
+          <t>0,93; 1,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MED_INDEX-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Clase-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indice de medicación 0-13</t>
+          <t>Indice de medicación 0-13 (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MED_INDEX-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Clase-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,08</t>
+          <t>0,81; 1,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,06</t>
+          <t>0,83; 1,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,83</t>
+          <t>0,66; 0,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,33</t>
+          <t>1,04; 1,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 0,94</t>
+          <t>0,75; 0,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,14</t>
+          <t>0,94; 1,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>0,96</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,21</t>
+          <t>0,89; 1,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,12</t>
+          <t>0,82; 1,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,06</t>
+          <t>0,84; 1,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,24</t>
+          <t>0,96; 1,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,09</t>
+          <t>0,88; 1,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,12</t>
+          <t>0,92; 1,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,37 +852,37 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,41</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 1,55</t>
+          <t>1,21; 1,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,37</t>
+          <t>0,19; 1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,68</t>
+          <t>1,39; 1,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,34</t>
+          <t>1,75; 2,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 1,55</t>
+          <t>1,3; 1,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,59</t>
+          <t>0,33; 1,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,45</t>
+          <t>1,15; 1,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,27</t>
+          <t>1,03; 1,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,43</t>
+          <t>1,16; 1,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,26</t>
+          <t>1,28; 3,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,4</t>
+          <t>1,19; 1,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,67</t>
+          <t>1,18; 2,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,38</t>
+          <t>0,97; 1,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,14</t>
+          <t>0,81; 1,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 1,81</t>
+          <t>1,49; 1,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,06</t>
+          <t>1,43; 2,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 1,62</t>
+          <t>1,33; 1,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 1,71</t>
+          <t>1,35; 1,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,52</t>
+          <t>0,21; 0,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,66</t>
+          <t>0,27; 0,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 1,79</t>
+          <t>1,39; 1,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 1,77</t>
+          <t>1,44; 1,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,41</t>
+          <t>1,02; 1,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,45</t>
+          <t>1,17; 1,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1292,37 +1292,37 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>1,15</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,21</t>
+          <t>1,01; 1,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,02</t>
+          <t>0,56; 1,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,33</t>
+          <t>1,17; 1,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,39</t>
+          <t>1,45; 2,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,26</t>
+          <t>1,11; 1,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,71</t>
+          <t>1,1; 1,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">

--- a/data/trans_orig/MED_INDEX-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Clase-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,9</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,74</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,82</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,83; 1,05</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 0,84</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,81; 1,0</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 1,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 0,84</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1,04; 1,34</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 0,97</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,66; 0,81</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 1,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 0,97</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>0,94; 1,14</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 0,87</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,75; 0,88</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 1,13</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 0,87</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,01</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0,96</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,81; 1,08</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 0,95</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,89; 1,16</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 1,11</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 0,95</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,94; 1,23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 0,94</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,84; 1,03</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 1,25</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 0,94</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,91; 1,1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 0,91</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,88; 1,04</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 1,13</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,75; 0,91</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,31</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,58</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,39</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,06; 1,47</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 1,07</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,21; 1,43</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 1,37</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 1,07</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,75; 2,32</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 1,7</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1,39; 1,81</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 2,32</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 1,7</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1,32; 1,67</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 1,2</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,3; 1,49</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 1,59</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 1,2</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,26</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1,26</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>1,26</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,01; 1,24</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 1,24</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,15; 1,4</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 1,27</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 1,24</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>1,18; 1,41</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,25</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1,16; 1,37</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 3,32</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,25</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>1,11; 1,28</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 1,21</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1,19; 1,34</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 2,63</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 1,21</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,12</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1,62</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>1,44</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,76; 1,06</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 0,99</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,97; 1,27</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 1,14</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 0,99</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>1,74; 2,06</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 1,56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>1,49; 1,75</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 2,05</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 1,56</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>1,4; 1,65</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 1,25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>1,33; 1,55</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 1,7</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 1,25</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,29</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>1,53</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,26; 0,6</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 1,26</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,21; 0,42</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 0,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 1,26</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>1,43; 1,74</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 2,22</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>1,39; 1,7</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 1,76</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 2,22</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>1,18; 1,44</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 1,8</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>1,02; 1,26</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 1,44</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,75; 1,8</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,06</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>1,22</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>1,15</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,93; 1,05</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 0,94</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,01; 1,12</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 1,02</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 0,94</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>1,41; 1,54</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 1,12</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>1,17; 1,27</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 2,37</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 1,12</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>1,19; 1,28</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 1,01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>1,11; 1,18</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 1,75</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 1,01</t>
         </is>
       </c>
     </row>
